--- a/sourceDocs/UY-QUYEN-APPOTA.xlsx
+++ b/sourceDocs/UY-QUYEN-APPOTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\testProject\auto-complete-docx-form\sourceDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B6B40-AA29-4262-86DF-414A85B9307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E4821-2267-4918-98F7-C702DDD999BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -187,23 +187,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +437,7 @@
   <cols>
     <col min="1" max="1" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.296875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="34.296875" style="10" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.8984375" style="1" customWidth="1"/>
@@ -445,20 +454,20 @@
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="13"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -512,6 +521,22 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
+    <row r="3" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:I1"/>

--- a/sourceDocs/UY-QUYEN-APPOTA.xlsx
+++ b/sourceDocs/UY-QUYEN-APPOTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\testProject\auto-complete-docx-form\sourceDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E4821-2267-4918-98F7-C702DDD999BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE46B3-3F31-4F69-A942-A0A171569579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,9 +522,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
+      <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -537,6 +535,62 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
+    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:I1"/>
